--- a/teaching/traditional_assets/database/data/bahrain/bahrain_engineering_construction.xlsx
+++ b/teaching/traditional_assets/database/data/bahrain/bahrain_engineering_construction.xlsx
@@ -591,43 +591,43 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.157</v>
+        <v>0.08220000000000001</v>
       </c>
       <c r="G2">
-        <v>0.06247129076711071</v>
+        <v>0.02665610979150172</v>
       </c>
       <c r="H2">
-        <v>0.06247129076711071</v>
+        <v>0.02665610979150172</v>
       </c>
       <c r="I2">
-        <v>0.002450484135222743</v>
+        <v>-0.004011612562681447</v>
       </c>
       <c r="J2">
-        <v>0.002450484135222743</v>
+        <v>-0.004011612562681447</v>
       </c>
       <c r="K2">
-        <v>-4.68</v>
+        <v>-5.62</v>
       </c>
       <c r="L2">
-        <v>-0.01074873679375287</v>
+        <v>-0.0148324096067564</v>
       </c>
       <c r="M2">
-        <v>2.85</v>
+        <v>3.42</v>
       </c>
       <c r="N2">
-        <v>0.0608974358974359</v>
+        <v>0.1425</v>
       </c>
       <c r="O2">
-        <v>-0.608974358974359</v>
+        <v>-0.6085409252669038</v>
       </c>
       <c r="P2">
-        <v>2.85</v>
+        <v>3.42</v>
       </c>
       <c r="Q2">
-        <v>0.0608974358974359</v>
+        <v>0.1425</v>
       </c>
       <c r="R2">
-        <v>-0.608974358974359</v>
+        <v>-0.6085409252669038</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,73 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>64</v>
+        <v>31.5</v>
       </c>
       <c r="V2">
-        <v>1.367521367521368</v>
+        <v>1.3125</v>
       </c>
       <c r="W2">
-        <v>-0.03009646302250804</v>
+        <v>-0.03802435723951286</v>
       </c>
       <c r="X2">
-        <v>0.2884157794687958</v>
+        <v>0.3278012896401485</v>
       </c>
       <c r="Y2">
-        <v>-0.3185122424913038</v>
+        <v>-0.3658256468796613</v>
       </c>
       <c r="Z2">
-        <v>2.080612544192359</v>
+        <v>2.228823529411764</v>
       </c>
       <c r="AA2">
-        <v>0.005098508031088805</v>
+        <v>-0.008941176470588235</v>
       </c>
       <c r="AB2">
-        <v>0.1427028484600485</v>
+        <v>0.1307281099723083</v>
       </c>
       <c r="AC2">
-        <v>-0.1376043404289597</v>
+        <v>-0.1396692864428966</v>
       </c>
       <c r="AD2">
-        <v>86.2</v>
+        <v>75.2</v>
       </c>
       <c r="AE2">
-        <v>13.36529603762008</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>99.56529603762009</v>
+        <v>75.2</v>
       </c>
       <c r="AG2">
-        <v>35.56529603762009</v>
+        <v>43.7</v>
       </c>
       <c r="AH2">
-        <v>0.6802520729506054</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="AI2">
-        <v>0.3942160605580176</v>
+        <v>0.3369175627240144</v>
       </c>
       <c r="AJ2">
-        <v>0.431799529031933</v>
+        <v>0.6454948301329394</v>
       </c>
       <c r="AK2">
-        <v>0.1886099764111661</v>
+        <v>0.2279603547209181</v>
       </c>
       <c r="AL2">
-        <v>3.32</v>
+        <v>3.27</v>
       </c>
       <c r="AM2">
-        <v>2.951</v>
+        <v>2.949</v>
       </c>
       <c r="AN2">
-        <v>4.164251207729468</v>
+        <v>4.39766081871345</v>
       </c>
       <c r="AO2">
-        <v>-1.644578313253012</v>
+        <v>-0.4648318042813456</v>
       </c>
       <c r="AP2">
-        <v>1.718130243363289</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="AQ2">
-        <v>-1.850220264317181</v>
+        <v>-0.5154289589691421</v>
       </c>
     </row>
     <row r="3">
@@ -722,43 +722,43 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.157</v>
+        <v>0.08220000000000001</v>
       </c>
       <c r="G3">
-        <v>0.06247129076711071</v>
+        <v>0.02665610979150172</v>
       </c>
       <c r="H3">
-        <v>0.06247129076711071</v>
+        <v>0.02665610979150172</v>
       </c>
       <c r="I3">
-        <v>0.002450484135222743</v>
+        <v>-0.004011612562681447</v>
       </c>
       <c r="J3">
-        <v>0.002450484135222743</v>
+        <v>-0.004011612562681447</v>
       </c>
       <c r="K3">
-        <v>-4.68</v>
+        <v>-5.62</v>
       </c>
       <c r="L3">
-        <v>-0.01074873679375287</v>
+        <v>-0.0148324096067564</v>
       </c>
       <c r="M3">
-        <v>2.85</v>
+        <v>3.42</v>
       </c>
       <c r="N3">
-        <v>0.0608974358974359</v>
+        <v>0.1425</v>
       </c>
       <c r="O3">
-        <v>-0.608974358974359</v>
+        <v>-0.6085409252669038</v>
       </c>
       <c r="P3">
-        <v>2.85</v>
+        <v>3.42</v>
       </c>
       <c r="Q3">
-        <v>0.0608974358974359</v>
+        <v>0.1425</v>
       </c>
       <c r="R3">
-        <v>-0.608974358974359</v>
+        <v>-0.6085409252669038</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,73 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>64</v>
+        <v>31.5</v>
       </c>
       <c r="V3">
-        <v>1.367521367521368</v>
+        <v>1.3125</v>
       </c>
       <c r="W3">
-        <v>-0.03009646302250804</v>
+        <v>-0.03802435723951286</v>
       </c>
       <c r="X3">
-        <v>0.2884157794687958</v>
+        <v>0.3278012896401485</v>
       </c>
       <c r="Y3">
-        <v>-0.3185122424913038</v>
+        <v>-0.3658256468796613</v>
       </c>
       <c r="Z3">
-        <v>2.080612544192359</v>
+        <v>2.228823529411764</v>
       </c>
       <c r="AA3">
-        <v>0.005098508031088805</v>
+        <v>-0.008941176470588235</v>
       </c>
       <c r="AB3">
-        <v>0.1427028484600485</v>
+        <v>0.1307281099723083</v>
       </c>
       <c r="AC3">
-        <v>-0.1376043404289597</v>
+        <v>-0.1396692864428966</v>
       </c>
       <c r="AD3">
-        <v>86.2</v>
+        <v>75.2</v>
       </c>
       <c r="AE3">
-        <v>13.36529603762008</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>99.56529603762009</v>
+        <v>75.2</v>
       </c>
       <c r="AG3">
-        <v>35.56529603762009</v>
+        <v>43.7</v>
       </c>
       <c r="AH3">
-        <v>0.6802520729506054</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="AI3">
-        <v>0.3942160605580176</v>
+        <v>0.3369175627240144</v>
       </c>
       <c r="AJ3">
-        <v>0.431799529031933</v>
+        <v>0.6454948301329394</v>
       </c>
       <c r="AK3">
-        <v>0.1886099764111661</v>
+        <v>0.2279603547209181</v>
       </c>
       <c r="AL3">
-        <v>3.32</v>
+        <v>3.27</v>
       </c>
       <c r="AM3">
-        <v>2.951</v>
+        <v>2.949</v>
       </c>
       <c r="AN3">
-        <v>4.164251207729468</v>
+        <v>4.39766081871345</v>
       </c>
       <c r="AO3">
-        <v>-1.644578313253012</v>
+        <v>-0.4648318042813456</v>
       </c>
       <c r="AP3">
-        <v>1.718130243363289</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="AQ3">
-        <v>-1.850220264317181</v>
+        <v>-0.5154289589691421</v>
       </c>
     </row>
   </sheetData>
